--- a/i18n/excel_from_translation/nl.wur.LateBlight.xlsx
+++ b/i18n/excel_from_translation/nl.wur.LateBlight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_316D75DEABABEFD4CDDDD963E7204509826A6DF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7996AA24-7E7D-4D9A-A2B4-55EED49B4FE9}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_316D75DEABABEFD4CDDDD963E7204509826A6DF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{152D6397-8430-4D93-9ED5-C6687C002AE7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>KEY</t>
   </si>
@@ -161,6 +161,16 @@
 </t>
   </si>
   <si>
+    <t>LIGA: Bulvių maras yra grybinė liga, kuri gali smarkiai pažeisti pasėlių lapiją ir taip pat gali užkrėsti gumbus. SPRENDIMAS: Bulvių marui kontroliuoti yra naudojami fungicidai. Purškimo laikas ir fungicido parinkimas yra svarbiausi veiksniai siekiant sėkmingai apsaugoti pasėlius nuo bulvių maro. Programa „Garmmaps BlightApp“ padeda bulvių augintojams įgyvendinti optimalią prevencinę bulvių maro kontrolės strategiją viso sezono metu. Be profilaktinio purškimo, įspėjama, kai reikia atlikti gydomuosius ir net naikinamuosius stabdomuosius purškimus. MODELIS: Purškimo patarimai grindžiami nuolat atnaujinamų 500 x 500 m didelės raiškos meteorologinių duomenų analize lauko lygmeniu. Orų prognozės naudojamos siekiant nustatyti galimus infekcijos atvejus artimiausioje ateityje. Matavimų meteorologiniai duomenys naudojami siekiant patikrinti, ar pagal faktinį purškimo grafiką nėra pasėlių apsaugos spragų. „BlightApp“ rekomenduos profilaktinį purškimą prieš pat prognozuojamus infekcijos atvejus. Gydomasis purškimas rekomenduojamas tada, kai infekcija gali būti tik ką pasireiškusi. Naikinamasis purškimas rekomenduojamas, kai infekcija pasireiškė netolimoje praeityje. „BlightApp“ taip pat atsižvelgia į spartų pasėlių augimą. Dėl greito augimo ir smarkaus ligos plitimo gali prireikti trumpesnio intervalo tarp purškimų. Atsižvelgiant į vietos situaciją, ligos plitimo pavojaus lygis gali padidėti arba sumažėti. Informacija apie fungicidus tiesiogiai gaunama iš „Euroblight“ fungicidų lentelės ir apima apsaugines bei gydomąsias savybes, naujo prieaugio apsaugą, gumbų apsaugą ir atsparumą lietui.PARAMETRAI: Sprendimų priėmimo sistemos naudoja didelės skiriamosios gebos orų duomenis, pasėlių augimo spartą ir vietinį ligų intensyvumą. Naudotojai gali koreguoti pasėlių augimo ir ligos plitimo rodiklius. ŠALTINIS: SPS sukūrė „Wageningen Research“, ji išbandyta keliose šalyse ir gali būti naudojama visoje Europoje. Prieš pradėdamas naudotis „BlightApp", naudotojas turi susikurti nemokamą paskyrą „Farmmaps", susikurti ūkį ir nusipirkti programą. „BlightApp“ naudojimosi išlaidos yra 250 EUR per metus.</t>
+  </si>
+  <si>
+    <t>LE BIOAGRESSEUR : Le mildiou est une maladie fongique de la pomme de terre qui peut causer de graves dommages au feuillage et peut également infecter les tubercules. 
+LA DÉCISION : Des fongicides sont utilisés pour lutter contre le mildiou. Le moment de la pulvérisation et le choix du fongicide sont les facteurs les plus importants de l’efficacité de la lutte contre le mildiou de la pomme de terre. BlightApp aide les producteurs de pommes de terre à mettre en œuvre une stratégie optimisée de lutte préventive contre le mildiou, tout au long de la saison. En plus des applications de pulvérisation préventive, une alerte est émise lorsque des pulvérisations curatives, voire éradicatrices, sont nécessaires. 
+LE MODÈLE : Les conseils de pulvérisation sont basés sur l'analyse de données météorologiques haute résolution de 500 x 500 m, mises à jour en continu, au niveau du champ. Les prévisions météorologiques sont utilisées pour identifier les événements d'infection potentiels dans un avenir proche. Les données météorologiques mesurées sont utilisées pour vérifier les lacunes dans la protection de la culture dans le cadre du programme de pulvérisation réalisé. BlightApp recommandera une pulvérisation préventive peu de temps avant les événements d'infection prévus. Une pulvérisation curative est recommandée lorsque l'infection a tout juste eu lieu. Une pulvérisation éradicatrice est recommandée lorsque l'infection a pu se produire dans un passé récent. BlightApp prend également en compte la croissance parfois rapide d'une culture. Une croissance rapide combinée à une forte pression de la maladie peut nécessiter un intervalle de pulvérisation plus court. Le niveau de pression de la maladie peut être augmenté ou diminué en fonction de la situation locale. Les caractéristiques des fongicides sont importées du tableau des fongicides d'Euroblight et comprennent les efficacité protectrices et curatives, la protection des nouvelles pousses, la protection des tubercules et la résistance à la pluie.
+LES PARAMÈTRES : L’outil utilise des données météorologiques à haute résolution, le taux de croissance des cultures et la pression des maladies locales. La croissance des cultures et la pression des maladies locales peuvent être ajustées par l'utilisateur.
+SOURCE : L’outil est développé par Wageningen Research et est testé dans plusieurs pays et peut être utilisé dans toute l'Europe. Avant d'utiliser BlightApp, l'utilisateur doit créer un compte (gratuit) sur Farmmaps, créer une ferme et acheter l'application. Les coûts d'utilisation de BlightApp sont de 250€/an.</t>
+  </si>
+  <si>
     <t>"L'INFESTANTE: la peronospora tardiva è una malattia fungina che può causare gravi danni al fogliame della coltura e può infettare anche i tuberi. 
 LA DECISIONE: per controllare la peronospora tardiva si usano i fungicidi. Il momento dell'irrorazione e la scelta del fungicida sono i fattori più importanti per il successo del controllo della peronospora della patata. L'applicazione Garmmaps BlightApp supporta i coltivatori di patate nell'attuazione di una strategia preventiva ottimizzata di controllo della peronospora tardiva della patata durante tutta la stagione. Oltre alle applicazioni preventive, viene emesso un avviso quando sono necessarie irrorazioni curative e persino eradicanti. 
 IL MODELLO: I consigli per l'irrorazione si basano sull'analisi di dati meteorologici ad alta risoluzione, aggiornati costantemente a 500 x 500 m, a livello di campo. I dati meteorologici previsti vengono utilizzati per identificare potenziali eventi di infezione nel prossimo futuro. I dati meteorologici misurati vengono utilizzati per verificare la presenza di lacune nella protezione della coltura nell'ambito dell'attuale programma di irrorazione. La BlightApp consiglia un'irrorazione preventiva poco prima degli eventi infettivi previsti. Un'applicazione curativa è consigliata quando l'infezione potrebbe essersi già verificata. Le applicazioni eradicanti sono consigliate quando l'infezione potrebbe essersi verificata nel recente passato. BlightApp tiene conto anche della crescita talvolta rapida di una coltura. Una crescita rapida in combinazione con un'elevata pressione della malattia può richiedere un intervallo di irrorazione più breve. Il livello di pressione della malattia può essere aumentato o ridotto in base alla situazione locale. Le caratteristiche del fungicida sono importate dalla tabella dei fungicidi Euroblight e comprendono le capacità protettive e curative, la protezione della nuova crescita, la protezione dei tuberi e la resistenza alla pioggia.
@@ -168,6 +178,13 @@
 FONTE: Il DSS è stato sviluppato da Wageningen Research ed è stato testato in diversi Paesi e può essere utilizzato in tutta Europa. Prima di utilizzare BlightApp, l'utente deve creare un account (gratuito) su Farmmaps, creare un'azienda agricola e acquistare l'applicazione. Il costo dell'utilizzo di BlightApp è di 250 euro all'anno".</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ο Εχθρός: Ο περονόσπορος είναι μια μυκητολογική ασθένεια που μπορεί να προκαλέσει σοβαρές ζημιές στο φύλλωμα της καλλιέργειας και μπορεί επίσης να μολύνει τους κονδύλους. 
+Η ΑΠΟΦΑΣΗ: Χρησιμοποιούνται μυκητοκτόνα για την καταπολέμηση του περονόσπορου. Ο χρόνος ψεκασμού και η επιλογή του μυκητοκτόνου είναι ο πιο σημαντικός παράγοντας για την επιτυχή καταπολέμηση του περονόσπορου της πατάτας. Η εφαρμογή Garmmaps BlightApp υποστηρίζει τους πατατοπαραγωγούς στην εφαρμογή μιας βελτιστοποιημένης προληπτικής στρατηγικής καταπολέμησης του περονόσπορου της πατάτας καθ' όλη τη διάρκεια της περιόδου. Εκτός από τις προληπτικές εφαρμογές ψεκασμού, εκδίδεται ειδοποίηση όταν απαιτούνται θεραπευτικοί ψεκασμοί- ακόμη και ψεκασμοί διακοπής της εξόντωσης. 
+ΤΟ ΜΟΝΤΕΛΟ: Οι συμβουλές ψεκασμού βασίζονται στην ανάλυση συνεχώς ενημερωμένων καιρικών δεδομένων υψηλής ανάλυσης 500 x 500 m, σε επίπεδο αγρού. Τα προβλεπόμενα καιρικά δεδομένα χρησιμοποιούνται για τον εντοπισμό πιθανών συμβάντων μόλυνσης στο εγγύς μέλλον. Τα μετρημένα καιρικά δεδομένα χρησιμοποιούνται για τον έλεγχο των κενών στην προστασία της καλλιέργειας στο πλαίσιο του πραγματικού προγράμματος ψεκασμού. Το BlightApp θα συστήσει μια προληπτική εφαρμογή ψεκασμού λίγο πριν από τα προβλεπόμενα συμβάντα μόλυνσης. Μια θεραπευτική εφαρμογή ψεκασμού συνιστάται όταν η μόλυνση μπορεί απλώς να έχει συμβεί. Οι εφαρμογές εξοντωτικού ψεκασμού συνιστώνται όταν η μόλυνση μπορεί να έχει εμφανιστεί στο πρόσφατο παρελθόν. Το BlightApp λαμβάνει επίσης υπόψη την ενίοτε ταχεία ανάπτυξη μιας καλλιέργειας. Η ταχεία ανάπτυξη σε συνδυασμό με την υψηλή πίεση της ασθένειας μπορεί να απαιτεί μικρότερο διάστημα ψεκασμού. Το επίπεδο πίεσης της ασθένειας μπορεί να αυξηθεί ή να μειωθεί ανάλογα με την τοπική κατάσταση. Τα χαρακτηριστικά των μυκητοκτόνων εισάγονται από τον πίνακα μυκητοκτόνων Euroblight και περιλαμβάνουν προστατευτικές καθώς και θεραπευτικές ικανότητες, προστασία της νέας ανάπτυξης, προστασία των κονδύλων και ανθεκτικότητα στη βροχή.
+ΟΙ ΠΑΡΑΜΕΤΡΟΙ: Το DSS χρησιμοποιεί δεδομένα καιρού υψηλής ανάλυσης, ρυθμό ανάπτυξης της καλλιέργειας και τοπική πίεση ασθενειών. Η ανάπτυξη της καλλιέργειας και η τοπική πίεση ασθενειών μπορούν να ρυθμιστούν από τον χρήστη.
+ΠΗΓΗ: Το DSS έχει αναπτυχθεί από την Wageningen Research και έχει δοκιμαστεί σε διάφορες χώρες και μπορεί να χρησιμοποιηθεί σε όλη την Ευρώπη. Πριν από τη χρήση του BlightApp ο χρήστης πρέπει να δημιουργήσει έναν (δωρεάν) λογαριασμό στη Farmmaps, να δημιουργήσει μια φάρμα και να αγοράσει την εφαρμογή. Το κόστος χρήσης του BlightApp ανέρχεται σε 250€/έτος.</t>
+  </si>
+  <si>
     <t>nl.wur.LateBlight.1.models.BlightApp.name</t>
   </si>
   <si>
@@ -195,9 +212,18 @@
     <t>DSS Perunarutto</t>
   </si>
   <si>
+    <t>Bulvių maro SPS</t>
+  </si>
+  <si>
+    <t>OAD Mildiou de la pomme de terre</t>
+  </si>
+  <si>
     <t>DSS Peronospora della patata</t>
   </si>
   <si>
+    <t>DSS Περονόσπορου πατάτας</t>
+  </si>
+  <si>
     <t>nl.wur.LateBlight.1.models.BlightApp.purpose</t>
   </si>
   <si>
@@ -225,14 +251,23 @@
     <t>Tarjoaa optimoitua ja ennaltaehkäisevää perunaruton hallintastrategiaa</t>
   </si>
   <si>
+    <t>Suteikia optimalią prevencinę bulvių maro kontrolės strategiją</t>
+  </si>
+  <si>
+    <t>Fournir une stratégie optimisée de lutte préventive contre le mildiou de la pomme de terre</t>
+  </si>
+  <si>
     <t>Fornisce una strategia di controllo preventivo ottimizzato della peronospora della patata</t>
+  </si>
+  <si>
+    <t>Παροχή βελτιστοποιημένης προληπτικής στρατηγικής καταπολέμησης του περονόσπορου της πατάτας</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +297,34 @@
       <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -329,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -358,6 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,7 +842,13 @@
       <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -786,15 +861,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="7" max="8" width="9.140625" style="6"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="13" max="13" width="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -875,72 +953,99 @@
       <c r="I2" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="J2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -961,19 +1066,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1233,14 +1325,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2ECBB49-E93B-47F1-AB85-9C38A624EC83}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD21770A-D423-4E20-8A42-59F84B1A389F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88CA2434-903E-4C1B-BA21-99E809325415}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88CA2434-903E-4C1B-BA21-99E809325415}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD21770A-D423-4E20-8A42-59F84B1A389F}"/>
 </file>